--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrae\Desktop\IPA\test_ipa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D609DDC-703B-4721-9913-4D2EAD096E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29E297-6F11-4238-B46A-8243F2094D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,13 +291,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,25 +330,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,169 +632,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="17">
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="17">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="17">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="17">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="17">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="17">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="17">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="17">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="17">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="17">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="17">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="17">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -802,8 +802,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -822,8 +822,8 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -834,685 +834,653 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
       <c r="BC3" t="s">
         <v>18</v>
       </c>
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
       <c r="BC4" t="s">
         <v>19</v>
       </c>
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="14"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="4"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="N15" s="14"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="N15" s="4"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="16"/>
-      <c r="O17" s="14"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="6"/>
+      <c r="O17" s="4"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="P19" s="14"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="P19" s="4"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="Q21" s="14"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="Q21" s="4"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="AW22" s="8"/>
+      <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="6"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="U27" s="14"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="U27" s="4"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="6"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AQ28" s="8"/>
+      <c r="AR28" s="8"/>
+      <c r="AW28" s="8"/>
+      <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AQ29" s="8"/>
+      <c r="AR29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="19"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="6"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="9"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="8"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="19"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="6"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AQ34" s="8"/>
+      <c r="AR34" s="8"/>
+      <c r="AW34" s="8"/>
+      <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="6"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+      <c r="AW36" s="8"/>
+      <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="6" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AK37" s="14"/>
-      <c r="AL37" s="14"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+      <c r="AW37" s="8"/>
+      <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="6"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
-      <c r="AW38" s="19"/>
-      <c r="AX38" s="19"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AM39" s="14"/>
-      <c r="AN39" s="14"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8"/>
+      <c r="AW39" s="8"/>
+      <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="6"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+      <c r="AW40" s="8"/>
+      <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AO41" s="14"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AO41" s="4"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="6"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="19"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="6" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AW43" s="19"/>
-      <c r="AX43" s="19"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="6"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AQ44" s="19"/>
-      <c r="AR44" s="19"/>
-      <c r="AW44" s="19"/>
-      <c r="AX44" s="19"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="8"/>
+      <c r="AW44" s="8"/>
+      <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AQ45" s="19"/>
-      <c r="AR45" s="19"/>
-      <c r="AS45" s="14"/>
-      <c r="AT45" s="14"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="14"/>
-      <c r="AW45" s="19"/>
-      <c r="AX45" s="19"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AQ45" s="8"/>
+      <c r="AR45" s="8"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="4"/>
+      <c r="AU45" s="4"/>
+      <c r="AV45" s="4"/>
+      <c r="AW45" s="8"/>
+      <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="6"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AI1:AL1"/>
@@ -1523,12 +1491,50 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29E297-6F11-4238-B46A-8243F2094D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AFCD7-EAA3-482C-8699-AA56797C3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,10 +300,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -312,13 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,11 +321,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,10 +1064,11 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
+      <c r="N18" s="2"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
       <c r="AQ18" s="8"/>
@@ -1076,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1093,10 +1094,11 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
+      <c r="N20" s="2"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
       <c r="AQ20" s="8"/>
@@ -1105,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1122,10 +1124,11 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
+      <c r="N22" s="2"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
       <c r="AQ22" s="8"/>
@@ -1134,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1150,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="AE24" s="8"/>
@@ -1162,8 +1165,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1178,8 +1181,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="AE26" s="8"/>
@@ -1190,8 +1193,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1205,8 +1208,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="AE28" s="8"/>
@@ -1217,8 +1220,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1233,8 +1236,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="AE30" s="8"/>
@@ -1245,8 +1248,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1262,8 +1265,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="AE32" s="8"/>
@@ -1274,8 +1277,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1292,8 +1295,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="AE34" s="8"/>
@@ -1304,8 +1307,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1323,8 +1326,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="AE36" s="8"/>
@@ -1335,8 +1338,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1351,8 +1354,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1363,10 +1366,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1381,8 +1384,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1393,8 +1396,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1408,8 +1411,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1420,8 +1423,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1436,8 +1439,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1448,10 +1451,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1468,8 +1471,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1481,38 +1484,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1529,12 +1506,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AFCD7-EAA3-482C-8699-AA56797C3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD236E-8E07-4827-AFAA-71C8A32FCF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,10 +1153,12 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AQ24" s="8"/>
@@ -1165,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1181,10 +1183,11 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
+      <c r="P26" s="2"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AQ26" s="8"/>
@@ -1193,8 +1196,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1208,8 +1211,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="AE28" s="8"/>
@@ -1220,8 +1223,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1236,8 +1239,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="AE30" s="8"/>
@@ -1248,8 +1251,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1265,8 +1268,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="AE32" s="8"/>
@@ -1277,8 +1280,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1295,8 +1298,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="AE34" s="8"/>
@@ -1307,8 +1310,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1326,8 +1329,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="AE36" s="8"/>
@@ -1338,8 +1341,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1354,8 +1357,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1366,10 +1369,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1384,8 +1387,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1396,8 +1399,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1411,8 +1414,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1423,8 +1426,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1439,8 +1442,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1451,10 +1454,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1471,8 +1474,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1484,12 +1487,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1506,38 +1535,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD236E-8E07-4827-AFAA-71C8A32FCF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FD779-0E26-4F2B-B8E2-A2AF1F2EE9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,16 +300,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,11 +1183,12 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AQ26" s="8"/>
@@ -1196,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1211,10 +1212,12 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
       <c r="AQ28" s="8"/>
@@ -1223,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1239,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="AE30" s="8"/>
@@ -1251,8 +1254,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1268,10 +1271,11 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
+      <c r="R32" s="2"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AQ32" s="8"/>
@@ -1280,8 +1284,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1298,8 +1302,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="AE34" s="8"/>
@@ -1310,8 +1314,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1329,8 +1333,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="AE36" s="8"/>
@@ -1341,8 +1345,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1357,8 +1361,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1369,10 +1373,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1387,8 +1391,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1399,8 +1403,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1414,8 +1418,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1426,8 +1430,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1442,8 +1446,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1454,10 +1458,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1474,8 +1478,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1487,38 +1491,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1535,12 +1513,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FD779-0E26-4F2B-B8E2-A2AF1F2EE9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B84AB-D751-4B3E-93F1-6F278D12507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,10 +1242,12 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
       <c r="AQ30" s="8"/>
@@ -1254,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1271,11 +1273,13 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AQ32" s="8"/>
@@ -1284,8 +1288,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1302,8 +1306,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="AE34" s="8"/>
@@ -1314,8 +1318,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1333,8 +1337,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="AE36" s="8"/>
@@ -1345,8 +1349,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1361,8 +1365,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1373,10 +1377,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1391,8 +1395,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1403,8 +1407,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1418,8 +1422,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1430,8 +1434,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1446,8 +1450,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1458,10 +1462,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1478,8 +1482,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1491,12 +1495,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1513,38 +1543,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B84AB-D751-4B3E-93F1-6F278D12507D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BB560-5214-44AD-BBC1-827F465BD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,16 +300,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1288,8 +1288,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1306,10 +1306,12 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
       <c r="AQ34" s="8"/>
@@ -1318,8 +1320,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1337,8 +1339,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="AE36" s="8"/>
@@ -1349,8 +1351,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1365,8 +1367,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1377,10 +1379,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1395,8 +1397,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1407,8 +1409,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1422,8 +1424,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1434,8 +1436,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1450,8 +1452,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1462,10 +1464,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1482,8 +1484,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1495,38 +1497,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1543,12 +1519,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BB560-5214-44AD-BBC1-827F465BD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A702A76-48E4-41D6-9445-4CBB13F372F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-5530" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,13 +1273,14 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
+      <c r="Z32" s="2"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AQ32" s="8"/>
@@ -1288,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1306,12 +1307,13 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
       <c r="AQ34" s="8"/>
@@ -1320,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1339,10 +1341,12 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
       <c r="AQ36" s="8"/>
@@ -1351,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1367,8 +1371,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AE38" s="8"/>
@@ -1379,10 +1383,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1397,8 +1401,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1409,8 +1413,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1424,8 +1428,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1436,8 +1440,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1452,8 +1456,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1464,10 +1468,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1484,8 +1488,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1497,12 +1501,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1519,38 +1549,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A702A76-48E4-41D6-9445-4CBB13F372F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ACD30-71E5-47A2-89EA-E535BEBEA535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-5530" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,16 +300,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+      <selection activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1307,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1341,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,10 +1371,11 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
       <c r="AQ38" s="8"/>
@@ -1383,10 +1384,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1401,8 +1402,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1413,8 +1414,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1428,8 +1429,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1440,8 +1441,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1456,8 +1457,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1468,10 +1469,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1488,8 +1489,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1501,38 +1502,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1549,12 +1524,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043ACD30-71E5-47A2-89EA-E535BEBEA535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC53CB5-BB53-4846-99CF-AD275F3B6607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5530" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG39" sqref="AG39"/>
+      <selection activeCell="AH44" sqref="AH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1307,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1341,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,8 +1371,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1384,10 +1384,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1402,20 +1402,22 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
       <c r="AQ40" s="8"/>
       <c r="AR40" s="8"/>
       <c r="AW40" s="8"/>
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1429,20 +1431,21 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
+      <c r="AH42" s="2"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1457,22 +1460,23 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
+      <c r="AH44" s="2"/>
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1489,8 +1493,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1502,12 +1506,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1524,38 +1554,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC53CB5-BB53-4846-99CF-AD275F3B6607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29F2B3-B0DE-4C7B-BBCC-A289EEAFED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,16 +300,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH44" sqref="AH44"/>
+      <selection activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1307,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1341,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,8 +1371,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1384,10 +1384,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1402,8 +1402,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1416,8 +1416,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1431,21 +1431,24 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
       <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
       <c r="AQ42" s="8"/>
       <c r="AR42" s="8"/>
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1460,23 +1463,27 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
-      <c r="AH44" s="2"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
       <c r="AQ44" s="8"/>
       <c r="AR44" s="8"/>
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1493,8 +1500,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1506,38 +1513,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1554,12 +1535,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29F2B3-B0DE-4C7B-BBCC-A289EEAFED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B408B-5C77-4E39-B6B1-DCB45B816C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL45" sqref="AL45"/>
+      <selection activeCell="AL39" sqref="D39:AL43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1307,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1341,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,8 +1371,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1384,10 +1384,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1402,8 +1402,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1416,8 +1416,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1431,8 +1431,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1447,8 +1447,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1463,8 +1463,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1480,10 +1480,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1500,8 +1500,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1513,12 +1513,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1535,38 +1561,12 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B408B-5C77-4E39-B6B1-DCB45B816C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E526F7-111D-4A56-9CB4-26AF10613580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,16 +300,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
   <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL39" sqref="D39:AL43"/>
+      <selection activeCell="AP45" sqref="AP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,166 +632,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="A2" s="14"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="10">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="10">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="10">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="10">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="10">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="10">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="10">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -844,8 +844,8 @@
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -861,8 +861,8 @@
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -877,8 +877,8 @@
       <c r="AX5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -891,8 +891,8 @@
       <c r="AX6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -908,8 +908,8 @@
       <c r="AX7" s="8"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -922,10 +922,10 @@
       <c r="AX8" s="8"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -941,8 +941,8 @@
       <c r="AX9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -954,8 +954,8 @@
       <c r="AX10" s="8"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -970,8 +970,8 @@
       <c r="AX11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -983,8 +983,8 @@
       <c r="AX12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1000,8 +1000,8 @@
       <c r="AX13" s="8"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1015,8 +1015,8 @@
       <c r="AX14" s="8"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1031,8 +1031,8 @@
       <c r="AX15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1046,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1064,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1077,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1094,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1107,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1137,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1153,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1167,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1183,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1197,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1212,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1226,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1242,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1256,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1273,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1289,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1307,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1322,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1341,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1355,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,8 +1371,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="12"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1384,10 +1384,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1402,8 +1402,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="12"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1416,8 +1416,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1431,8 +1431,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1447,8 +1447,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1463,8 +1463,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="12"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1480,10 +1480,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1500,12 +1500,13 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="12"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
+      <c r="AO46" s="2"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
       <c r="AW46" s="8"/>
@@ -1513,38 +1514,12 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1561,12 +1536,38 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E526F7-111D-4A56-9CB4-26AF10613580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634F12C-9DC3-43B3-AF00-0D1087478838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,21 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD46"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP45" sqref="AP45"/>
+      <selection sqref="A1:BA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,167 +634,167 @@
     <col min="3" max="50" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-    </row>
-    <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="10">
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+    </row>
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11">
         <v>44803</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
         <v>44804</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="10">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11">
         <v>44809</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11">
         <v>44810</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="10">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11">
         <v>44811</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11">
         <v>44817</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11">
         <v>44818</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11">
         <v>44823</v>
       </c>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="10">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="10">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11">
         <v>44825</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11">
         <v>44830</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="10">
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="11">
         <v>44831</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -838,14 +841,14 @@
       <c r="AR3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
-      <c r="BC3" t="s">
+      <c r="AZ3" t="s">
         <v>18</v>
       </c>
-      <c r="BD3" s="3"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="12"/>
+      <c r="BA3" s="3"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -855,14 +858,14 @@
       <c r="AR4" s="8"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
-      <c r="BC4" t="s">
+      <c r="AZ4" t="s">
         <v>19</v>
       </c>
-      <c r="BD4" s="2"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12" t="s">
+      <c r="BA4" s="2"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -876,9 +879,9 @@
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -890,9 +893,9 @@
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -907,9 +910,9 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -921,11 +924,11 @@
       <c r="AW8" s="8"/>
       <c r="AX8" s="8"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -940,9 +943,9 @@
       <c r="AW9" s="8"/>
       <c r="AX9" s="8"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -953,9 +956,9 @@
       <c r="AW10" s="8"/>
       <c r="AX10" s="8"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -969,9 +972,9 @@
       <c r="AW11" s="8"/>
       <c r="AX11" s="8"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -982,9 +985,9 @@
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -999,9 +1002,9 @@
       <c r="AW13" s="8"/>
       <c r="AX13" s="8"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1014,9 +1017,9 @@
       <c r="AW14" s="8"/>
       <c r="AX14" s="8"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1030,9 +1033,9 @@
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1046,10 +1049,10 @@
       <c r="AX16" s="8"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1064,8 +1067,8 @@
       <c r="AX17" s="8"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="9"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1077,8 +1080,8 @@
       <c r="AX18" s="8"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1094,8 +1097,8 @@
       <c r="AX19" s="8"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="9"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1107,10 +1110,10 @@
       <c r="AX20" s="8"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1124,8 +1127,8 @@
       <c r="AX21" s="8"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="9"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1137,8 +1140,8 @@
       <c r="AX22" s="8"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1153,8 +1156,8 @@
       <c r="AX23" s="8"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="9"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1167,8 +1170,8 @@
       <c r="AX24" s="8"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1183,8 +1186,8 @@
       <c r="AX25" s="8"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="9"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1197,8 +1200,8 @@
       <c r="AX26" s="8"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1212,8 +1215,8 @@
       <c r="AX27" s="8"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="9"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1226,8 +1229,8 @@
       <c r="AX28" s="8"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1242,8 +1245,8 @@
       <c r="AX29" s="8"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="9"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1256,8 +1259,8 @@
       <c r="AX30" s="8"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1273,8 +1276,8 @@
       <c r="AX31" s="8"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="9"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1289,8 +1292,8 @@
       <c r="AX32" s="8"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1307,8 +1310,8 @@
       <c r="AX33" s="8"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1322,8 +1325,8 @@
       <c r="AX34" s="8"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1341,8 +1344,8 @@
       <c r="AX35" s="8"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1355,8 +1358,8 @@
       <c r="AX36" s="8"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1371,8 +1374,8 @@
       <c r="AX37" s="8"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1384,10 +1387,10 @@
       <c r="AX38" s="8"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1402,8 +1405,8 @@
       <c r="AX39" s="8"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="9"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1416,8 +1419,8 @@
       <c r="AX40" s="8"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1431,8 +1434,8 @@
       <c r="AX41" s="8"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="9"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1447,8 +1450,8 @@
       <c r="AX42" s="8"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1463,8 +1466,8 @@
       <c r="AX43" s="8"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1480,10 +1483,10 @@
       <c r="AX44" s="8"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1500,8 +1503,8 @@
       <c r="AX45" s="8"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="9"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1509,17 +1512,45 @@
       <c r="AO46" s="2"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1536,41 +1567,15 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2634F12C-9DC3-43B3-AF00-0D1087478838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B6870-2DF1-44B8-A2A0-A8DC5CA13E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Informieren</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Fazit und Reflexion</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Tag 13</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -280,11 +292,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,11 +321,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,180 +648,192 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA46"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:BA46"/>
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="50" width="5.7109375" customWidth="1"/>
+    <col min="3" max="54" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="10" t="s">
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10" t="s">
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-    </row>
-    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="11">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+    </row>
+    <row r="2" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="15">
         <v>44803</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15">
         <v>44804</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15">
         <v>44809</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15">
         <v>44810</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15">
         <v>44811</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="15">
         <v>44817</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15">
         <v>44818</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15">
         <v>44823</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="15">
         <v>44824</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="15">
         <v>44825</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="15">
         <v>44830</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="11">
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="15">
         <v>44831</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="13">
+        <v>44832</v>
+      </c>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+    </row>
+    <row r="3" spans="1:56" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
@@ -841,14 +880,18 @@
       <c r="AR3" s="8"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
-      <c r="AZ3" t="s">
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" t="s">
         <v>18</v>
       </c>
-      <c r="BA3" s="3"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
+      <c r="BD3" s="3"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -858,14 +901,16 @@
       <c r="AR4" s="8"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
-      <c r="AZ4" t="s">
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" t="s">
         <v>19</v>
       </c>
-      <c r="BA4" s="2"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="BD4" s="2"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4"/>
@@ -878,10 +923,16 @@
       <c r="AR5" s="8"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD5" s="9"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="K6" s="8"/>
@@ -892,10 +943,12 @@
       <c r="AR6" s="8"/>
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="4"/>
@@ -909,10 +962,12 @@
       <c r="AR7" s="8"/>
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="14"/>
       <c r="D8" s="2"/>
       <c r="I8" s="2"/>
       <c r="K8" s="8"/>
@@ -923,12 +978,14 @@
       <c r="AR8" s="8"/>
       <c r="AW8" s="8"/>
       <c r="AX8" s="8"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="6"/>
@@ -942,10 +999,12 @@
       <c r="AR9" s="8"/>
       <c r="AW9" s="8"/>
       <c r="AX9" s="8"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="9"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="14"/>
       <c r="E10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -955,10 +1014,12 @@
       <c r="AR10" s="8"/>
       <c r="AW10" s="8"/>
       <c r="AX10" s="8"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9" t="s">
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="6"/>
@@ -971,10 +1032,12 @@
       <c r="AR11" s="8"/>
       <c r="AW11" s="8"/>
       <c r="AX11" s="8"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14"/>
       <c r="E12" s="2"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -984,10 +1047,12 @@
       <c r="AR12" s="8"/>
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9" t="s">
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="6"/>
@@ -1001,10 +1066,12 @@
       <c r="AR13" s="8"/>
       <c r="AW13" s="8"/>
       <c r="AX13" s="8"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14"/>
       <c r="F14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1016,10 +1083,12 @@
       <c r="AR14" s="8"/>
       <c r="AW14" s="8"/>
       <c r="AX14" s="8"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9" t="s">
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="6"/>
@@ -1032,10 +1101,12 @@
       <c r="AR15" s="8"/>
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="14"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1047,12 +1118,14 @@
       <c r="AR16" s="8"/>
       <c r="AW16" s="8"/>
       <c r="AX16" s="8"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="8"/>
@@ -1065,10 +1138,12 @@
       <c r="AR17" s="8"/>
       <c r="AW17" s="8"/>
       <c r="AX17" s="8"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="N18" s="2"/>
@@ -1078,10 +1153,12 @@
       <c r="AR18" s="8"/>
       <c r="AW18" s="8"/>
       <c r="AX18" s="8"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9" t="s">
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="8"/>
@@ -1095,10 +1172,12 @@
       <c r="AR19" s="8"/>
       <c r="AW19" s="8"/>
       <c r="AX19" s="8"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="N20" s="2"/>
@@ -1108,12 +1187,14 @@
       <c r="AR20" s="8"/>
       <c r="AW20" s="8"/>
       <c r="AX20" s="8"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="8"/>
@@ -1125,10 +1206,12 @@
       <c r="AR21" s="8"/>
       <c r="AW21" s="8"/>
       <c r="AX21" s="8"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="14"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="N22" s="2"/>
@@ -1138,10 +1221,12 @@
       <c r="AR22" s="8"/>
       <c r="AW22" s="8"/>
       <c r="AX22" s="8"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="8"/>
@@ -1154,10 +1239,12 @@
       <c r="AR23" s="8"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="14"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="O24" s="2"/>
@@ -1168,10 +1255,12 @@
       <c r="AR24" s="8"/>
       <c r="AW24" s="8"/>
       <c r="AX24" s="8"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="8"/>
@@ -1184,10 +1273,12 @@
       <c r="AR25" s="8"/>
       <c r="AW25" s="8"/>
       <c r="AX25" s="8"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="P26" s="2"/>
@@ -1198,10 +1289,12 @@
       <c r="AR26" s="8"/>
       <c r="AW26" s="8"/>
       <c r="AX26" s="8"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9" t="s">
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="14" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="8"/>
@@ -1213,10 +1306,12 @@
       <c r="AR27" s="8"/>
       <c r="AW27" s="8"/>
       <c r="AX27" s="8"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="Q28" s="2"/>
@@ -1227,10 +1322,12 @@
       <c r="AR28" s="8"/>
       <c r="AW28" s="8"/>
       <c r="AX28" s="8"/>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9" t="s">
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="8"/>
@@ -1243,10 +1340,12 @@
       <c r="AR29" s="8"/>
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="S30" s="2"/>
@@ -1257,10 +1356,12 @@
       <c r="AR30" s="8"/>
       <c r="AW30" s="8"/>
       <c r="AX30" s="8"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="K31" s="8"/>
@@ -1274,10 +1375,12 @@
       <c r="AR31" s="8"/>
       <c r="AW31" s="8"/>
       <c r="AX31" s="8"/>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="14"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="R32" s="2"/>
@@ -1290,10 +1393,12 @@
       <c r="AR32" s="8"/>
       <c r="AW32" s="8"/>
       <c r="AX32" s="8"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9" t="s">
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="14" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="8"/>
@@ -1308,10 +1413,12 @@
       <c r="AR33" s="8"/>
       <c r="AW33" s="8"/>
       <c r="AX33" s="8"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="9"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="W34" s="2"/>
@@ -1323,10 +1430,12 @@
       <c r="AR34" s="8"/>
       <c r="AW34" s="8"/>
       <c r="AX34" s="8"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="8"/>
@@ -1342,10 +1451,12 @@
       <c r="AR35" s="8"/>
       <c r="AW35" s="8"/>
       <c r="AX35" s="8"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="14"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="Y36" s="2"/>
@@ -1356,10 +1467,12 @@
       <c r="AR36" s="8"/>
       <c r="AW36" s="8"/>
       <c r="AX36" s="8"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="8"/>
@@ -1372,10 +1485,12 @@
       <c r="AR37" s="8"/>
       <c r="AW37" s="8"/>
       <c r="AX37" s="8"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="14"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="AD38" s="2"/>
@@ -1385,12 +1500,14 @@
       <c r="AR38" s="8"/>
       <c r="AW38" s="8"/>
       <c r="AX38" s="8"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K39" s="8"/>
@@ -1403,10 +1520,12 @@
       <c r="AR39" s="8"/>
       <c r="AW39" s="8"/>
       <c r="AX39" s="8"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="14"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="AE40" s="8"/>
@@ -1417,10 +1536,12 @@
       <c r="AR40" s="8"/>
       <c r="AW40" s="8"/>
       <c r="AX40" s="8"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="8"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="8"/>
@@ -1432,10 +1553,12 @@
       <c r="AR41" s="8"/>
       <c r="AW41" s="8"/>
       <c r="AX41" s="8"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="14"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="AE42" s="8"/>
@@ -1448,10 +1571,12 @@
       <c r="AR42" s="8"/>
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9" t="s">
+      <c r="BA42" s="8"/>
+      <c r="BB42" s="8"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="14" t="s">
         <v>42</v>
       </c>
       <c r="K43" s="8"/>
@@ -1464,10 +1589,12 @@
       <c r="AR43" s="8"/>
       <c r="AW43" s="8"/>
       <c r="AX43" s="8"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
+      <c r="BA43" s="8"/>
+      <c r="BB43" s="8"/>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="14"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="AE44" s="8"/>
@@ -1481,12 +1608,14 @@
       <c r="AR44" s="8"/>
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="BA44" s="8"/>
+      <c r="BB44" s="8"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="K45" s="8"/>
@@ -1495,16 +1624,20 @@
       <c r="AF45" s="8"/>
       <c r="AQ45" s="8"/>
       <c r="AR45" s="8"/>
-      <c r="AS45" s="4"/>
-      <c r="AT45" s="4"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
       <c r="AW45" s="8"/>
       <c r="AX45" s="8"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
+      <c r="AY45" s="4"/>
+      <c r="AZ45" s="4"/>
+      <c r="BA45" s="8"/>
+      <c r="BB45" s="8"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="14"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="AE46" s="8"/>
@@ -1512,13 +1645,17 @@
       <c r="AO46" s="2"/>
       <c r="AQ46" s="8"/>
       <c r="AR46" s="8"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AI1:AL1"/>
@@ -1529,9 +1666,6 @@
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="C1:F1"/>
@@ -1540,17 +1674,36 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AM2:AP2"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AQ2:AT2"/>
     <mergeCell ref="AU1:AX1"/>
@@ -1559,23 +1712,9 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doku/Zeitplan.xlsx
+++ b/doku/Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IPA-Test-2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B6870-2DF1-44B8-A2A0-A8DC5CA13E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C582671-8270-44A4-8139-CEE747DE79B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-5530" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:BD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC17" sqref="BC17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF35" sqref="BE35:BF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,6 +1651,8 @@
       <c r="AV46" s="2"/>
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
       <c r="BA46" s="8"/>
       <c r="BB46" s="8"/>
     </row>
